--- a/resources/data/BANCOCNPJ.xlsx
+++ b/resources/data/BANCOCNPJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1707"/>
+  <dimension ref="A1:B1802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17446,10 +17446,8 @@
       </c>
     </row>
     <row r="1702">
-      <c r="A1702" t="inlineStr">
-        <is>
-          <t>58173177000170</t>
-        </is>
+      <c r="A1702" t="n">
+        <v>58173177000170</v>
       </c>
       <c r="B1702" t="inlineStr">
         <is>
@@ -17458,10 +17456,8 @@
       </c>
     </row>
     <row r="1703">
-      <c r="A1703" t="inlineStr">
-        <is>
-          <t>53190387000152</t>
-        </is>
+      <c r="A1703" t="n">
+        <v>53190387000152</v>
       </c>
       <c r="B1703" t="inlineStr">
         <is>
@@ -17470,10 +17466,8 @@
       </c>
     </row>
     <row r="1704">
-      <c r="A1704" t="inlineStr">
-        <is>
-          <t>33687920000189</t>
-        </is>
+      <c r="A1704" t="n">
+        <v>33687920000189</v>
       </c>
       <c r="B1704" t="inlineStr">
         <is>
@@ -17482,10 +17476,8 @@
       </c>
     </row>
     <row r="1705">
-      <c r="A1705" t="inlineStr">
-        <is>
-          <t>28272921000122</t>
-        </is>
+      <c r="A1705" t="n">
+        <v>28272921000122</v>
       </c>
       <c r="B1705" t="inlineStr">
         <is>
@@ -17494,10 +17486,8 @@
       </c>
     </row>
     <row r="1706">
-      <c r="A1706" t="inlineStr">
-        <is>
-          <t>35357269000104</t>
-        </is>
+      <c r="A1706" t="n">
+        <v>35357269000104</v>
       </c>
       <c r="B1706" t="inlineStr">
         <is>
@@ -17506,14 +17496,966 @@
       </c>
     </row>
     <row r="1707">
-      <c r="A1707" t="inlineStr">
-        <is>
-          <t>54487976000160</t>
-        </is>
+      <c r="A1707" t="n">
+        <v>54487976000160</v>
       </c>
       <c r="B1707" t="inlineStr">
         <is>
           <t>54.487.976 KATIA CRISTINA DE OLIVEIRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="n">
+        <v>33041260161419</v>
+      </c>
+      <c r="B1708" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIA S/A                                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="n">
+        <v>39790806000166</v>
+      </c>
+      <c r="B1709" t="inlineStr">
+        <is>
+          <t>SOCIEDADE INDIVIDUAL DE ADVOCACIA ROBERTA BERNARDI ATHAYDE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="n">
+        <v>41077131000154</v>
+      </c>
+      <c r="B1710" t="inlineStr">
+        <is>
+          <t>A P SILVA SOLUCOES</t>
+        </is>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="n">
+        <v>51455169000177</v>
+      </c>
+      <c r="B1711" t="inlineStr">
+        <is>
+          <t>MARIANA VALICENTE ARQUITETURA E URBANISMO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="n">
+        <v>52497861000120</v>
+      </c>
+      <c r="B1712" t="inlineStr">
+        <is>
+          <t>MARTHA ESCALEIRA TREINAMENTO E DESENVOLVIMENTO PESSOAL LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="n">
+        <v>65555146000220</v>
+      </c>
+      <c r="B1713" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BALASKA EQUIPE INDUSTRIA E COMERCIO               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="n">
+        <v>9036323000100</v>
+      </c>
+      <c r="B1714" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AUTO VIDROSHOP LTDA                                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="n">
+        <v>43283811008568</v>
+      </c>
+      <c r="B1715" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KALUNGA SA                                                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="n">
+        <v>11406570000445</v>
+      </c>
+      <c r="B1716" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMIT HOTELARIA LTDA                                         </t>
+        </is>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="n">
+        <v>11664172000186</v>
+      </c>
+      <c r="B1717" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KAREN MIYAZAKI DE ANDRADE MATERIAIS                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="n">
+        <v>29048542000116</v>
+      </c>
+      <c r="B1718" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KIBUNITINHO - LEMBRANCINHAS E PERSO                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="n">
+        <v>37802034000100</v>
+      </c>
+      <c r="B1719" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COMERCIAL REI DO TNT LTDA                                     </t>
+        </is>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="n">
+        <v>23392370000117</v>
+      </c>
+      <c r="B1720" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ELETRICA TENSAO LTDA                                          </t>
+        </is>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="n">
+        <v>45321509000174</v>
+      </c>
+      <c r="B1721" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AROMA CULINARIA GH LTDA                                       </t>
+        </is>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="n">
+        <v>25108146000186</v>
+      </c>
+      <c r="B1722" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MECANICA CARDOZO RIO PRETO LTDA                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="n">
+        <v>51013899000118</v>
+      </c>
+      <c r="B1723" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESTAURANTE E LANCHONETE PONTOCHIQ                            </t>
+        </is>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="n">
+        <v>49886047000193</v>
+      </c>
+      <c r="B1724" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HOTEL BEIRA RIO LTDA                                         </t>
+        </is>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="n">
+        <v>3584154000166</v>
+      </c>
+      <c r="B1725" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JEANETE ALVES DE LIMA OLIVEIRA ITAB                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="n">
+        <v>52979988000186</v>
+      </c>
+      <c r="B1726" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W V CINE FOTOS LTDA                                          </t>
+        </is>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="n">
+        <v>31021498000100</v>
+      </c>
+      <c r="B1727" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESTAURANTE SOUZA LTDA                                        </t>
+        </is>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="n">
+        <v>6957683000156</v>
+      </c>
+      <c r="B1728" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DIBRAPO COMERCIO E IMPORTACAO LTDA                            </t>
+        </is>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="n">
+        <v>6989805000196</v>
+      </c>
+      <c r="B1729" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ELAINE VIEIRA DO NASCIMENTO GUERRA                  </t>
+        </is>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="n">
+        <v>21713088000169</v>
+      </c>
+      <c r="B1730" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AKI ELETRO IMPORTADORA E EXPORTADOR                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="n">
+        <v>77589976000176</v>
+      </c>
+      <c r="B1731" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ELETRO SOUZA - UTILIDADES DOMESTICA                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="n">
+        <v>23368883000192</v>
+      </c>
+      <c r="B1732" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COMERCIAL VILAAGROCENTER LTDA                        </t>
+        </is>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="n">
+        <v>52954337000131</v>
+      </c>
+      <c r="B1733" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BROT PAO PANIFICADORA E CONFEITARIA                 </t>
+        </is>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="n">
+        <v>17589708000122</v>
+      </c>
+      <c r="B1734" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RBRVIDROS PRODUTOS PARA LABORATORIO               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="n">
+        <v>77765840000170</v>
+      </c>
+      <c r="B1735" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONTABILISTA SUPRIMENTOS PARA ESCRI                 </t>
+        </is>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="n">
+        <v>43283811016587</v>
+      </c>
+      <c r="B1736" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KALUNGA SA                                                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="n">
+        <v>8581947000145</v>
+      </c>
+      <c r="B1737" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ESCARLETE PRODUTOS DE LIMPEZA LTDA                            </t>
+        </is>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="n">
+        <v>62253430000172</v>
+      </c>
+      <c r="B1738" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHURRASCARIA ESPETO DE OURO SOROCAB                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="n">
+        <v>61285870000149</v>
+      </c>
+      <c r="B1739" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FERRARI MATERIAIS ELETRICOS SOROCAB               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="n">
+        <v>41129047000137</v>
+      </c>
+      <c r="B1740" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GSCOMMERCE VENDAS NA INTERNET LTDA                            </t>
+        </is>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="n">
+        <v>40842046000172</v>
+      </c>
+      <c r="B1741" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARCIO GONCALVES DE ARAUJO                            </t>
+        </is>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="n">
+        <v>54845294000181</v>
+      </c>
+      <c r="B1742" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JBL COMERCIAL LTDA                                            </t>
+        </is>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="n">
+        <v>27249548000126</v>
+      </c>
+      <c r="B1743" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIX COMERCIO DE VARIEDADES LTDA                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="n">
+        <v>5649289000279</v>
+      </c>
+      <c r="B1744" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EMPORIO ANDALUZIA LTDA                            </t>
+        </is>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="n">
+        <v>24170335000116</v>
+      </c>
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>24.170.335 FELIPE RAMOS KOBAYASHI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="n">
+        <v>55997262000164</v>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>ENGEHAB ENGENHARIA E CONSULTORIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="n">
+        <v>56022083000174</v>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>MARHAS ARQUITETURA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="n">
+        <v>22626496000146</v>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>DAIENE AGUIAR COELHO CONSTRUCOES E REFORMAS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="n">
+        <v>46527533000127</v>
+      </c>
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>SS14 LIMPEZAS E MANUTENCAO TECNICA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="n">
+        <v>48884769000146</v>
+      </c>
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>FG SERVITEC SERVICOS DE ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="n">
+        <v>19797128000156</v>
+      </c>
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>SUTIL GESSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="n">
+        <v>30562139000190</v>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>AMC TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="n">
+        <v>68897164000105</v>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>C &amp; M ENGENHARIA E AVALIACAO LIMITADA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="n">
+        <v>61882395000198</v>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>OBRA SOCIAL DOM BOSCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="n">
+        <v>28263361000140</v>
+      </c>
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>GG PROJECT INDUSTRIA E COMERCIO DE PLANTAS E PAISAGISMO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="n">
+        <v>46381521001532</v>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>ESTACIONAMENTOS TREVO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="n">
+        <v>35664436000160</v>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>JOAO LUIZ RIBEIRO GONSALO 02550259807</t>
+        </is>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="n">
+        <v>5212175000186</v>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>POUSADA CASA DA PRAIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="n">
+        <v>51587513000181</v>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>CTHUT TREINAMENTOS E APOIO ADMINISTRATIVO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="n">
+        <v>9119094000197</v>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>CARLOS SHIGUERU TOYA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="n">
+        <v>36132069000116</v>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>WALQUIRIA BORGES ORNELAS 29721721832</t>
+        </is>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="n">
+        <v>38333535000157</v>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>MARCELO CARVALHO CRUZ SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="n">
+        <v>48881084000146</v>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>SOLVE ENGENHARIA E TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="n">
+        <v>55695018000147</v>
+      </c>
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>MARISA CAMPOS GUIDINI LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="n">
+        <v>45785423000100</v>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>INNOVA PROJETOS E CONSULTORIA DE ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="n">
+        <v>10661584000108</v>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>ASO - ASSESSORIA EM SAUDE OCUPACIONAL LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="n">
+        <v>57876365000100</v>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>A.F.A PROJETOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="n">
+        <v>10282999000162</v>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>CARMONA ENGENHARIA RIO PRETO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="n">
+        <v>44231754000128</v>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>DM LIPORACCI ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="n">
+        <v>44933184000118</v>
+      </c>
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>N.SFG ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="n">
+        <v>35174251000177</v>
+      </c>
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>POUSADA SHANGRILA RP LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="n">
+        <v>43862416000121</v>
+      </c>
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>PANORAMA PARK HOTEL LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="n">
+        <v>35524427000173</v>
+      </c>
+      <c r="B1773" t="inlineStr">
+        <is>
+          <t>HOTEL PEREGRINOS LTDA.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="n">
+        <v>66937228000110</v>
+      </c>
+      <c r="B1774" t="inlineStr">
+        <is>
+          <t>OESTE TURISMO E HOTELARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="n">
+        <v>57131687000111</v>
+      </c>
+      <c r="B1775" t="inlineStr">
+        <is>
+          <t>57.131.687 MAYARA DOS SANTOS OLIVEIRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="n">
+        <v>56419704000158</v>
+      </c>
+      <c r="B1776" t="inlineStr">
+        <is>
+          <t>CORDONI ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="n">
+        <v>52718858000190</v>
+      </c>
+      <c r="B1777" t="inlineStr">
+        <is>
+          <t>52.718.858 CAMILA MIANO SIQUEIRA CORTES</t>
+        </is>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="n">
+        <v>49210623000188</v>
+      </c>
+      <c r="B1778" t="inlineStr">
+        <is>
+          <t>49.210.623 GEDIEL FERREIRA MENDES</t>
+        </is>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="n">
+        <v>45965626000170</v>
+      </c>
+      <c r="B1779" t="inlineStr">
+        <is>
+          <t>A. MAIA ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="n">
+        <v>30813396000157</v>
+      </c>
+      <c r="B1780" t="inlineStr">
+        <is>
+          <t>30.813.396 ANDREA FOGASSA DA SILVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="n">
+        <v>57822360000196</v>
+      </c>
+      <c r="B1781" t="inlineStr">
+        <is>
+          <t>57.822.360 KAREN HOSOMI TERAMAE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="n">
+        <v>56544727000194</v>
+      </c>
+      <c r="B1782" t="inlineStr">
+        <is>
+          <t>HRM ARQUITETURA EM HARMONIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="n">
+        <v>46460256000182</v>
+      </c>
+      <c r="B1783" t="inlineStr">
+        <is>
+          <t>GISELLE BLANCO DE JESUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="n">
+        <v>50104708000160</v>
+      </c>
+      <c r="B1784" t="inlineStr">
+        <is>
+          <t>DANTE BRANDINO DI PIAZZA ENGENHARIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="n">
+        <v>57587283000137</v>
+      </c>
+      <c r="B1785" t="inlineStr">
+        <is>
+          <t>EVOLUTEC ENGENHARIA E NEGOCIOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="n">
+        <v>19756149000123</v>
+      </c>
+      <c r="B1786" t="inlineStr">
+        <is>
+          <t>M2E ENGENHARIA DE AR CONDICIONADO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="n">
+        <v>3738315000129</v>
+      </c>
+      <c r="B1787" t="inlineStr">
+        <is>
+          <t>DEDETIZADORA, DESENTUPIDORA E COMERCIO LOREMI LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="n">
+        <v>938634000190</v>
+      </c>
+      <c r="B1788" t="inlineStr">
+        <is>
+          <t>MENDONCA CRUZ ADVOGADOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="n">
+        <v>45825621000142</v>
+      </c>
+      <c r="B1789" t="inlineStr">
+        <is>
+          <t>JONATHAN GOMES DA SILVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="n">
+        <v>1227689000154</v>
+      </c>
+      <c r="B1790" t="inlineStr">
+        <is>
+          <t>METRICA TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="n">
+        <v>52425228000127</v>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>52.425.228 ADRIANO PEREIRA DA ROCHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="n">
+        <v>20005076000117</v>
+      </c>
+      <c r="B1792" t="inlineStr">
+        <is>
+          <t>PATRICIA A. A. COUTINHO SERVICOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="n">
+        <v>56195727000126</v>
+      </c>
+      <c r="B1793" t="inlineStr">
+        <is>
+          <t>LCMIQUI CONSULTORIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="n">
+        <v>57363275000107</v>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>FLORENTEC ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="n">
+        <v>33974778000150</v>
+      </c>
+      <c r="B1795" t="inlineStr">
+        <is>
+          <t>JULIANA TREVIZAN SANDRINI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="n">
+        <v>57261597000145</v>
+      </c>
+      <c r="B1796" t="inlineStr">
+        <is>
+          <t>L. L. M. SILVA ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="n">
+        <v>37230001000132</v>
+      </c>
+      <c r="B1797" t="inlineStr">
+        <is>
+          <t>MARILZA APARECIDA FERRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="n">
+        <v>4376891000136</v>
+      </c>
+      <c r="B1798" t="inlineStr">
+        <is>
+          <t>LUCRYSTEL TELECOMUNICACOES LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="n">
+        <v>51743729000199</v>
+      </c>
+      <c r="B1799" t="inlineStr">
+        <is>
+          <t>MARIA LUISA PELEGRIN LAZARINI LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="n">
+        <v>44040097000131</v>
+      </c>
+      <c r="B1800" t="inlineStr">
+        <is>
+          <t>SENIUM ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="inlineStr">
+        <is>
+          <t>33872877000121</t>
+        </is>
+      </c>
+      <c r="B1801" t="inlineStr">
+        <is>
+          <t>Lucas da Costa Lino Ferreira Apoio Administrativo</t>
+        </is>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t>51731329000163</t>
+        </is>
+      </c>
+      <c r="B1802" t="inlineStr">
+        <is>
+          <t>F PULVIRENTI SERVICOS LTDA</t>
         </is>
       </c>
     </row>

--- a/resources/data/BANCOCNPJ.xlsx
+++ b/resources/data/BANCOCNPJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1802"/>
+  <dimension ref="A1:B1947"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18436,10 +18436,8 @@
       </c>
     </row>
     <row r="1801">
-      <c r="A1801" t="inlineStr">
-        <is>
-          <t>33872877000121</t>
-        </is>
+      <c r="A1801" t="n">
+        <v>33872877000121</v>
       </c>
       <c r="B1801" t="inlineStr">
         <is>
@@ -18448,14 +18446,1474 @@
       </c>
     </row>
     <row r="1802">
-      <c r="A1802" t="inlineStr">
-        <is>
-          <t>51731329000163</t>
-        </is>
+      <c r="A1802" t="n">
+        <v>51731329000163</v>
       </c>
       <c r="B1802" t="inlineStr">
         <is>
           <t>F PULVIRENTI SERVICOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="n">
+        <v>58055343000133</v>
+      </c>
+      <c r="B1803" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LOTUS CENTRAL DE DIST DE HIGIENICOS               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="n">
+        <v>43283811000826</v>
+      </c>
+      <c r="B1804" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KALUNGA SA                                        </t>
+        </is>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="n">
+        <v>45987005015896</v>
+      </c>
+      <c r="B1805" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COMERCIAL AUTOMOTIVA SA                                     </t>
+        </is>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="n">
+        <v>4885434000177</v>
+      </c>
+      <c r="B1806" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TETEIA PAPELARIA LTDA ME                          </t>
+        </is>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="n">
+        <v>13652806000106</v>
+      </c>
+      <c r="B1807" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GL GIARDINI LIMPEZAS LTDA                         </t>
+        </is>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="n">
+        <v>53363016000125</v>
+      </c>
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BELO JARDIM COMERCIAL DE BATERIAS L               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="n">
+        <v>36687724000100</v>
+      </c>
+      <c r="B1809" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LUIS FERNANDO CAMARGO                              </t>
+        </is>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="n">
+        <v>24493392000136</v>
+      </c>
+      <c r="B1810" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COMERCIAL BOTT LTDA                                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="n">
+        <v>4834843000900</v>
+      </c>
+      <c r="B1811" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FARMACIA SANTA CATARINA DE PRESIDEN                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="n">
+        <v>67330258000127</v>
+      </c>
+      <c r="B1812" t="inlineStr">
+        <is>
+          <t xml:space="preserve">POSTO AGROSUL DE ITARARE LTDA                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="n">
+        <v>5507782000173</v>
+      </c>
+      <c r="B1813" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JKLM HOTEL LTDA                                   </t>
+        </is>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="n">
+        <v>76189406003907</v>
+      </c>
+      <c r="B1814" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONDOR SUPER CENTER LTDA                                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="n">
+        <v>55915818000126</v>
+      </c>
+      <c r="B1815" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RAFIZA JULIA NOLASCO GOM                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="n">
+        <v>31962299000199</v>
+      </c>
+      <c r="B1816" t="inlineStr">
+        <is>
+          <t xml:space="preserve">E M MAYRHOFER EMANUEL MARCELO MAYRH                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="n">
+        <v>97324206000109</v>
+      </c>
+      <c r="B1817" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ELETRO FERRAGENS GUARATUBA LTDA                     </t>
+        </is>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="n">
+        <v>6787905000130</v>
+      </c>
+      <c r="B1818" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SHOPPING DOS EQUIPAMENTOS - COMERCI                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="n">
+        <v>85174910002600</v>
+      </c>
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INDUSTRIA TEXTIL PORTO FRANCO LTDA                            </t>
+        </is>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="n">
+        <v>6293564000146</v>
+      </c>
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KADESH CALCADOS PROFISSIONAIS LTDA                  </t>
+        </is>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="n">
+        <v>46989450000150</v>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAV DISTRIBUIDORA LTDA                                        </t>
+        </is>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="n">
+        <v>34292439000157</v>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ELD EVENTOS LTDA                                              </t>
+        </is>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="n">
+        <v>43770675000122</v>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EDSON ROQUE                                        </t>
+        </is>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="n">
+        <v>1438784004607</v>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LEROY MERLIN COMPANHIA BRASILEIRA D                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="n">
+        <v>53155849000109</v>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ACLARA STORE LTDA                                             </t>
+        </is>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="n">
+        <v>31227625000114</v>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SR &amp; R COMERCIO E IMPORTACAO LTD                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="n">
+        <v>27808123000100</v>
+      </c>
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANCORA COMERCIO E SERVICOS GERAIS L               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="n">
+        <v>24275602000110</v>
+      </c>
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CARVALHO COMERCIO E DISTRIBUIDORA D                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="n">
+        <v>5374975000101</v>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARQUIMEDES AUTOMACAO E INFORMATICA                            </t>
+        </is>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="n">
+        <v>23476033000299</v>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BMB MATERIAL DE CONSTRUCAO SA                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="n">
+        <v>58745017000158</v>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> THIAGO RAMOS DE OLIVEIRA                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="n">
+        <v>46605045000190</v>
+      </c>
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONSORCIO LBR-COBRAPE-MMP                         </t>
+        </is>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="n">
+        <v>18626127000186</v>
+      </c>
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLORICULTURA SAO LUIZ LTDA                                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="n">
+        <v>12978586000142</v>
+      </c>
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>FARO E MELLO FERREIRA SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="n">
+        <v>60402405000188</v>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>EZEKI ENGENHARIA E CONSULTORIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="n">
+        <v>59493371000103</v>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>59.493.371 IVAN SOARES DA SILVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="n">
+        <v>18616981000161</v>
+      </c>
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t>DUFFEL ENGENHARIA E CONSTRUCOES LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="n">
+        <v>9245332000100</v>
+      </c>
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>FY CONSULTORIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="n">
+        <v>4052351000105</v>
+      </c>
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t>BOLDARINI ARQUITETURA E URBANISMO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="n">
+        <v>7369561000101</v>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>ROBERTO MIGUEL SIQUEIRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="n">
+        <v>45037347000147</v>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>PARK CORP ESTACIONAMENTOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="n">
+        <v>22160951000160</v>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>SORAYA CHAHIME - HOTEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="n">
+        <v>27277103000150</v>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>27.277.103 VALDEIR SIVENTE JUNIOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="n">
+        <v>60679475000188</v>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>60.679.475 MOACYR PINTO MESQUITA JUNIOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="n">
+        <v>60680614000193</v>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>60.680.614 RENATO FIUME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="n">
+        <v>49915087000116</v>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>49.915.087 ISABELLA ANGEL DE SOUZA OVIEDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="n">
+        <v>5367812000193</v>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>JSANTOS ENGENHARIA LTDA.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="n">
+        <v>60743536000129</v>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>60.743.536 GIRLENE MARTINS SOUZA MENDES</t>
+        </is>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="n">
+        <v>59834603000131</v>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>59.834.603 JUNIOR KOREKAZU KURAHARA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="n">
+        <v>58528492000172</v>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>ANDRE DANTAS TREINAMENTO E CONSULTORIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="n">
+        <v>60109517000145</v>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>GF SERVICOS DE ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="n">
+        <v>4763137000159</v>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>N.G. SITES LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="n">
+        <v>57286005000140</v>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>VINICIUS DO PRADO CAPANEMA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="n">
+        <v>34776508000106</v>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>34.776.508 RODRIGO CRISTIANO FERNANDES BROCHETTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="n">
+        <v>26028958000184</v>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>J. C. DA SILVA FELIX ENGENHARIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="n">
+        <v>49140776000104</v>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>AILTON B. DE MELO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="n">
+        <v>59104829000187</v>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>THATIANE MITIE NOGI - ENGENHARIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="n">
+        <v>9262548000184</v>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>DR. FERNANDO PRADO &amp; ASSOCIADOS - PRESTACAO DE SERVICOS MEDICOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="n">
+        <v>58209229000110</v>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>ZACARON ENGENHARIA E PROJETOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="n">
+        <v>12053309000129</v>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>MARLABS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="n">
+        <v>3638820000100</v>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>OASIS PLAZA HOTEL LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="n">
+        <v>21365175000172</v>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>POUSADA JORDAO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="n">
+        <v>2337877000106</v>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>KROMIA TOTAL COMUNICACAO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="n">
+        <v>23576567000106</v>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>AVARE PLAZA HOTEL PLUS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="n">
+        <v>1888362000123</v>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>ATA HOTEIS E TURISMO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="n">
+        <v>7220177000142</v>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>''FILDI HOTEL LTDA.''</t>
+        </is>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="n">
+        <v>66582784000111</v>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>MAPDATA-TECNOLOGIA,INFORMATICA E COMERCIO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="n">
+        <v>60142503000123</v>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>WJB ASSESSORIA E CONSULTORIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="n">
+        <v>62661814000396</v>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>ASSOCIACAO DOS OFICIAIS DE JUSTICA DO EST DE SAO PAULO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="n">
+        <v>26865210000136</v>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>HOTEL POUSADA RIO MAR LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="n">
+        <v>2285702000194</v>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>CONTI HOSPEDARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="n">
+        <v>32712862000133</v>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>RONALDO SERGIO GAZIN DA SILVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="n">
+        <v>51496223000122</v>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>W4 ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="n">
+        <v>54132694000140</v>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>SOUBHIA ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="n">
+        <v>3063067000163</v>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>GEOTEC CONSULTORIA AMBIENTAL LTDA.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="n">
+        <v>59902687000101</v>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>CANTO LENZ SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="n">
+        <v>47762882000196</v>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>ANTONIO ORLEI BONFIM 54671850982</t>
+        </is>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="n">
+        <v>40833158000167</v>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>METROLBRAS METROLOGIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="n">
+        <v>34341592000127</v>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>34.341.592 ELAINE APARECIDA DOS SANTOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="n">
+        <v>33093470000104</v>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>NILSON A. DO NASCIMENTO - ARQUITETURA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="n">
+        <v>14672395000183</v>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>STRATOSPHOTO DO BRASIL PRODUCOES FOTOGRAFICAS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="n">
+        <v>36686817000102</v>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>ROSANA DINIZ CORREA BERTAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="n">
+        <v>45545100000131</v>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>N K ENGENHARIA DE TRANSPORTES LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="n">
+        <v>58883526000147</v>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>T. A. Z. SOARES - SERVICOS JURIDICOS E ADMINISTRATIVOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="n">
+        <v>54107548000164</v>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>ANDREA VIRGILINO DE ANDRADE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="n">
+        <v>37500571000103</v>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>CODREAM ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="n">
+        <v>37054466000180</v>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>REALIZA CONTROLE TECNOLOGICO E SERVICOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="n">
+        <v>52508995000108</v>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>INTEGRAL SAUDE SEGURANCA E MEDICINA DO TRABALHO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="n">
+        <v>7818018000144</v>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>AJ SERVICOS DE INFORMATICA E COMUNICACAO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="n">
+        <v>59676570000149</v>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>JB PORTAS ABERTAS SERVICOS EMPRESARIAIS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="n">
+        <v>58071962000111</v>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>BRUNA MELO DE LIMA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="n">
+        <v>52637654000124</v>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>EURIDAN FERREIRA DA COSTA ARQUITETURA E URBANISMO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="n">
+        <v>45119065000199</v>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>INSTITUTO FIOS DE OURO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="n">
+        <v>10480844000130</v>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>AGIL COMERCIAL DO BRASIL INFORMATICA E COMUNICACAO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="n">
+        <v>33453790000110</v>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>PROLOAD TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="n">
+        <v>58456534000107</v>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>ADVANCED INFORMATICA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="n">
+        <v>60491301000197</v>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>BRUNO DA SILVA MOTA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="n">
+        <v>43143667000156</v>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>MAIRES ARTEFATOS DE CONCRETO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="n">
+        <v>59730876000136</v>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>ISA ORTEGA ARQUITETURA E URBANISMO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="n">
+        <v>60406066000108</v>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>BARBARA BERTACINI PARISE SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="n">
+        <v>59744568000160</v>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>ROBERTO CLAUDIO ROCHA RABELLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="n">
+        <v>21307597000191</v>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>DESK FUROS SEGURANCA DO TRABALHO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="n">
+        <v>2655141000178</v>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>GLOBALSERV EDITORA E COMERCIO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="n">
+        <v>46330879000130</v>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>46.330.879 FABIO SONCINI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="n">
+        <v>59841277000190</v>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>KABURE ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="n">
+        <v>59652114000169</v>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>KS ENGENHARIA E SERVICOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="n">
+        <v>50293705000112</v>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>BELLAFILTER COMERCIO E ASSISTENCIA TECNICA DE BEBEDOUROS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="n">
+        <v>59936570000130</v>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>MAISA PEREIRA DE MELO SERVICOS ADMINISTRATIVOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="n">
+        <v>40143235000157</v>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>ROBERTA LEITE SERGIO ALMEIDA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="n">
+        <v>59523644000107</v>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>TALITA P DA MATA RIBEIRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="n">
+        <v>59994666000155</v>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>ITS DESIGN STUDIO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="n">
+        <v>51971671000130</v>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>51.971.671 RICARDO CALORI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="n">
+        <v>53529302000118</v>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>53.529.302 CLAUDIA DE BARROS COUTINHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="n">
+        <v>41999589000160</v>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GARDEN HOTEL RP LTDA                                          </t>
+        </is>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="n">
+        <v>57868467000175</v>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>ANDRE JOSE DOS SANTOS CONSULTORIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="n">
+        <v>55782831000154</v>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>LUPINO AMBIENTAL LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="n">
+        <v>51407150000155</v>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>J. DAVILA ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="n">
+        <v>48074649000183</v>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>WBT LIMA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="n">
+        <v>8356731000186</v>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>RR ACQUA SERVICE COLETA E ANALISE DE AGUA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="n">
+        <v>10880262000141</v>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>AD SERVICE ASSESSORIA EM NORMAS OCUPACIONAIS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="n">
+        <v>52637048002748</v>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>ROD ESTACIONAMENTO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="n">
+        <v>59282738000131</v>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>59.282.738 BEATRIZ DE CASTRO GOMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="n">
+        <v>47752079000170</v>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>ATLAS CONSULT ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="n">
+        <v>59159108000174</v>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>ALESSANDRO B. PORTUGAL ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="n">
+        <v>67630723000145</v>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>PSI ENGENHARIA S/S LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="n">
+        <v>2077852000102</v>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>MYS ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="n">
+        <v>58918449000113</v>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>ANDREA CARDOSO SERVICOS DE ARQUITETURA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="n">
+        <v>48081502000110</v>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>LOUISE MIRANDA PAIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="n">
+        <v>59757505000148</v>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>WILL ROBSON COELHO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="n">
+        <v>31840086000194</v>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>BES ARQUITETAS ASSOCIADAS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="n">
+        <v>54235310000114</v>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>DV SOUTO ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="n">
+        <v>4049657000102</v>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t>MKA ARQUITETURA E PLANEJAMENTO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="n">
+        <v>35808088000157</v>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>P C E PROJETOS E CONSULTORIAS DE ENGENHARIA LIMITADA.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="n">
+        <v>12010165000123</v>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>PROGESCON - PROJETO, GESTAO E CONSULTORIA EM ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="n">
+        <v>59775955000163</v>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>NORVE GESTAO DE PROJETOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="n">
+        <v>58387677000104</v>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CARTUSHOP SUPRIMENTOS DE INFORMATIC                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="n">
+        <v>8606542000203</v>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TNTINFO COMERCIO DE MATERIAIS DE IN                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="n">
+        <v>25068162000192</v>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TATIANE C P VASCONCELOS                                       </t>
+        </is>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="n">
+        <v>59894167000196</v>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>HHX ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="n">
+        <v>57447372000188</v>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>DENILSON ALVES DE SOUZA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="n">
+        <v>31362220000199</v>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>MARIO CARLOS KFOURI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="inlineStr">
+        <is>
+          <t>43283811000907</t>
+        </is>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KALUNGA SA                                        </t>
+        </is>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="inlineStr">
+        <is>
+          <t>41999589000160</t>
+        </is>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GARDEN HOTEL RP LTDA                                          </t>
+        </is>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="inlineStr">
+        <is>
+          <t>54651716001150</t>
+        </is>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUPRICORP SUPRIMENTOS LTDA                        </t>
+        </is>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="inlineStr">
+        <is>
+          <t>19305084000108</t>
+        </is>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONSTRUTOR EQUIPAMENTOS PARA CONSTR               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="inlineStr">
+        <is>
+          <t>53283571000147</t>
+        </is>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GABRIELA SOARES PRADO                             </t>
+        </is>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="inlineStr">
+        <is>
+          <t>53700159000185</t>
+        </is>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ESPACIAL SUPRIMENTOS DE ESCRITORIO                </t>
         </is>
       </c>
     </row>

--- a/resources/data/BANCOCNPJ.xlsx
+++ b/resources/data/BANCOCNPJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1947"/>
+  <dimension ref="A1:B1968"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19091,7 +19091,7 @@
       </c>
       <c r="B1866" t="inlineStr">
         <is>
-          <t>''FILDI HOTEL LTDA.''</t>
+          <t>FILDI HOTEL LTDA.''</t>
         </is>
       </c>
     </row>
@@ -19846,74 +19846,276 @@
       </c>
     </row>
     <row r="1942">
-      <c r="A1942" t="inlineStr">
-        <is>
-          <t>43283811000907</t>
-        </is>
+      <c r="A1942" t="n">
+        <v>22354528000100</v>
       </c>
       <c r="B1942" t="inlineStr">
         <is>
-          <t xml:space="preserve">KALUNGA SA                                        </t>
+          <t xml:space="preserve">JOAO DE BARRO MATERIAL DE CONSTRUCA               </t>
         </is>
       </c>
     </row>
     <row r="1943">
-      <c r="A1943" t="inlineStr">
-        <is>
-          <t>41999589000160</t>
-        </is>
+      <c r="A1943" t="n">
+        <v>22721557000154</v>
       </c>
       <c r="B1943" t="inlineStr">
         <is>
-          <t xml:space="preserve">GARDEN HOTEL RP LTDA                                          </t>
+          <t xml:space="preserve">BGB COMRCIO DE AREIA E PEDRA LTDA                </t>
         </is>
       </c>
     </row>
     <row r="1944">
-      <c r="A1944" t="inlineStr">
-        <is>
-          <t>54651716001150</t>
-        </is>
+      <c r="A1944" t="n">
+        <v>4681311000114</v>
       </c>
       <c r="B1944" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUPRICORP SUPRIMENTOS LTDA                        </t>
+          <t xml:space="preserve">NOVA LIMP COMERCIO DE EMBALAGENS                  </t>
         </is>
       </c>
     </row>
     <row r="1945">
-      <c r="A1945" t="inlineStr">
-        <is>
-          <t>19305084000108</t>
-        </is>
+      <c r="A1945" t="n">
+        <v>53319972000100</v>
       </c>
       <c r="B1945" t="inlineStr">
         <is>
-          <t xml:space="preserve">CONSTRUTOR EQUIPAMENTOS PARA CONSTR               </t>
+          <t xml:space="preserve">OURO CINZA COMERCIO DE MATERIAIS PA               </t>
         </is>
       </c>
     </row>
     <row r="1946">
-      <c r="A1946" t="inlineStr">
-        <is>
-          <t>53283571000147</t>
-        </is>
+      <c r="A1946" t="n">
+        <v>20089905000197</v>
       </c>
       <c r="B1946" t="inlineStr">
         <is>
-          <t xml:space="preserve">GABRIELA SOARES PRADO                             </t>
+          <t xml:space="preserve">PORTO FORTALEZA AREIA E PEDRA - EPP               </t>
         </is>
       </c>
     </row>
     <row r="1947">
-      <c r="A1947" t="inlineStr">
-        <is>
-          <t>53700159000185</t>
-        </is>
+      <c r="A1947" t="n">
+        <v>41968234000104</v>
       </c>
       <c r="B1947" t="inlineStr">
         <is>
-          <t xml:space="preserve">ESPACIAL SUPRIMENTOS DE ESCRITORIO                </t>
+          <t xml:space="preserve">AGD SUPRIMENTOS INDUSTRIAIS LTDA                  </t>
+        </is>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="n">
+        <v>54290493000170</v>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EDNALDO G S RESTAURANTE SABOR DE MI               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="n">
+        <v>59962077000195</v>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NOSTRA MAMMA                                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="n">
+        <v>40613449000140</v>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BELLOOBRAS - SOLUCOES MATERIAIS CON               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="n">
+        <v>56727795001322</v>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CIMEMPRIMO DISTRIBUIDORA DE MATERIA               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="n">
+        <v>9371260000148</v>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RARIS COMERCIO DE BLOCOS LTDA                     </t>
+        </is>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="n">
+        <v>62978978000180</v>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CASA MIMOSA HIDRAULICA E ACABAMENTO               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="n">
+        <v>24292794000172</v>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GAMAFIX COM DE MAT P/ CONSTRUCAO                </t>
+        </is>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="n">
+        <v>48201917000180</v>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CERAMICA SATURNO LTDA                             </t>
+        </is>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="n">
+        <v>46130053000128</v>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>SENHORINHO CONSTRUCOES LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="n">
+        <v>3398301000103</v>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>ALFASEGA ARQUITETURA E CONSTRUCOES LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="n">
+        <v>27953762000169</v>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>ANA P DA SILVA CRUZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="n">
+        <v>57868869000170</v>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>57.868.869 RAFAEL DE ASSIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="n">
+        <v>56195442000195</v>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>56.195.442 ERIC ESCANES CANADAS BORGES</t>
+        </is>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="n">
+        <v>18524471000164</v>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>3 PONTOS COMUNICACAO VISUAL LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="n">
+        <v>58516632000192</v>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>LFS CONSTRUCOES LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="n">
+        <v>5739464000138</v>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>TRANS ZATT LOCACAO DE EQUIPAMENTOS PARA CONSTRUCAO E REMOCAO DE ENTULHO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="n">
+        <v>10267561000105</v>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>CONCRESERV SUDESTE S/A.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="n">
+        <v>74381000153</v>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>C.Z.N. ENGENHARIA LTDA.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="n">
+        <v>4113492000182</v>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>AGOS SERVICOS AUXILIARES DA CONSTRUCAO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   38239657869</t>
+        </is>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>NAO ENCONTRADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   00840815034</t>
+        </is>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>NAO ENCONTRADO</t>
         </is>
       </c>
     </row>
